--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H2">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I2">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J2">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>14.44114820698267</v>
+        <v>0.214195617192</v>
       </c>
       <c r="R2">
-        <v>86.64688924189601</v>
+        <v>0.856782468768</v>
       </c>
       <c r="S2">
-        <v>0.01009722509821815</v>
+        <v>0.0001261563375867308</v>
       </c>
       <c r="T2">
-        <v>0.008297429910758618</v>
+        <v>6.599672488673439E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H3">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I3">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J3">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>40.06185847833734</v>
+        <v>1.077003895307</v>
       </c>
       <c r="R3">
-        <v>360.556726305036</v>
+        <v>6.462023371842</v>
       </c>
       <c r="S3">
-        <v>0.02801118007452749</v>
+        <v>0.0006343307523271238</v>
       </c>
       <c r="T3">
-        <v>0.03452742725727368</v>
+        <v>0.0004977603933660605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H4">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I4">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J4">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>5.444561697144667</v>
+        <v>0.2934707962233333</v>
       </c>
       <c r="R4">
-        <v>49.001055274302</v>
+        <v>1.76082477734</v>
       </c>
       <c r="S4">
-        <v>0.003806827838704994</v>
+        <v>0.0001728476115690583</v>
       </c>
       <c r="T4">
-        <v>0.004692411063444576</v>
+        <v>0.0001356338074598494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H5">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I5">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J5">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>49.97493077960601</v>
+        <v>1.26013768308575</v>
       </c>
       <c r="R5">
-        <v>299.849584677636</v>
+        <v>5.040550732343</v>
       </c>
       <c r="S5">
-        <v>0.03494238256661347</v>
+        <v>0.0007421923802046133</v>
       </c>
       <c r="T5">
-        <v>0.02871402463955697</v>
+        <v>0.0003882663944307972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H6">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I6">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J6">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>3.448248515244222</v>
+        <v>0.09567945520650001</v>
       </c>
       <c r="R6">
-        <v>31.034236637198</v>
+        <v>0.574076731239</v>
       </c>
       <c r="S6">
-        <v>0.002411009218517829</v>
+        <v>5.635301884037114E-05</v>
       </c>
       <c r="T6">
-        <v>0.002971882840619482</v>
+        <v>4.422030734351446E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H7">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I7">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J7">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>3.209994942525333</v>
+        <v>0.3709620871265001</v>
       </c>
       <c r="R7">
-        <v>28.889954482728</v>
+        <v>2.225772522759001</v>
       </c>
       <c r="S7">
-        <v>0.002244422744941297</v>
+        <v>0.000218488216093886</v>
       </c>
       <c r="T7">
-        <v>0.002766543317859069</v>
+        <v>0.0001714480655237992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H8">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I8">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J8">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>70.9927629219187</v>
+        <v>7.967542680224001</v>
       </c>
       <c r="R8">
-        <v>425.9565775315122</v>
+        <v>47.805256081344</v>
       </c>
       <c r="S8">
-        <v>0.04963801335550608</v>
+        <v>0.00469270107988263</v>
       </c>
       <c r="T8">
-        <v>0.04079021045091823</v>
+        <v>0.003682370320061551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H9">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I9">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J9">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
-        <v>196.9443135961214</v>
+        <v>40.06185847833734</v>
       </c>
       <c r="R9">
-        <v>1772.498822365092</v>
+        <v>360.556726305036</v>
       </c>
       <c r="S9">
-        <v>0.1377031131937672</v>
+        <v>0.02359552174223349</v>
       </c>
       <c r="T9">
-        <v>0.1697370196917034</v>
+        <v>0.02777316756519492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H10">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I10">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J10">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>26.76549483733267</v>
+        <v>10.91638159996889</v>
       </c>
       <c r="R10">
-        <v>240.8894535359941</v>
+        <v>98.24743439971999</v>
       </c>
       <c r="S10">
-        <v>0.01871438630531244</v>
+        <v>0.006429500007541179</v>
       </c>
       <c r="T10">
-        <v>0.02306791824200195</v>
+        <v>0.007567858978521592</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H11">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I11">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J11">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>245.6770308028821</v>
+        <v>46.87397858353233</v>
       </c>
       <c r="R11">
-        <v>1474.062184817292</v>
+        <v>281.243871501194</v>
       </c>
       <c r="S11">
-        <v>0.1717769422433538</v>
+        <v>0.02760770525438256</v>
       </c>
       <c r="T11">
-        <v>0.1411583008880511</v>
+        <v>0.02166381209951015</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H12">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I12">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J12">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>16.95160840605622</v>
+        <v>3.559037075418</v>
       </c>
       <c r="R12">
-        <v>152.564475654506</v>
+        <v>32.031333678762</v>
       </c>
       <c r="S12">
-        <v>0.01185253439681717</v>
+        <v>0.002096191736582805</v>
       </c>
       <c r="T12">
-        <v>0.01460979216554275</v>
+        <v>0.002467327698233827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H13">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I13">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J13">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>15.78035255015734</v>
+        <v>13.79886433099134</v>
       </c>
       <c r="R13">
-        <v>142.023172951416</v>
+        <v>124.189778978922</v>
       </c>
       <c r="S13">
-        <v>0.01103359438906219</v>
+        <v>0.008127216652120456</v>
       </c>
       <c r="T13">
-        <v>0.01360034195778287</v>
+        <v>0.009566160578427539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H14">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I14">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J14">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>2.961053814908</v>
+        <v>26.635156531328</v>
       </c>
       <c r="R14">
-        <v>11.844215259632</v>
+        <v>159.810939187968</v>
       </c>
       <c r="S14">
-        <v>0.002070363552020538</v>
+        <v>0.01568750025370329</v>
       </c>
       <c r="T14">
-        <v>0.001134218975713844</v>
+        <v>0.01231000746624157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H15">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I15">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J15">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>8.214396610252001</v>
+        <v>133.9250901228214</v>
       </c>
       <c r="R15">
-        <v>49.28637966151199</v>
+        <v>1205.325811105392</v>
       </c>
       <c r="S15">
-        <v>0.00574349147525885</v>
+        <v>0.07887882629140475</v>
       </c>
       <c r="T15">
-        <v>0.004719734134421721</v>
+        <v>0.09284451871288518</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H16">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I16">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J16">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>1.116368307614</v>
+        <v>36.49299970398222</v>
       </c>
       <c r="R16">
-        <v>6.698209845684</v>
+        <v>328.43699733584</v>
       </c>
       <c r="S16">
-        <v>0.0007805627317809112</v>
+        <v>0.02149354524878671</v>
       </c>
       <c r="T16">
-        <v>0.0006414301449063784</v>
+        <v>0.02529903090450363</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H17">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I17">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J17">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>10.247000952678</v>
+        <v>156.6977180953613</v>
       </c>
       <c r="R17">
-        <v>40.988003810712</v>
+        <v>940.1863085721679</v>
       </c>
       <c r="S17">
-        <v>0.00716468481022977</v>
+        <v>0.09229138524057116</v>
       </c>
       <c r="T17">
-        <v>0.003925069806624346</v>
+        <v>0.07242120306025246</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H18">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I18">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J18">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>0.7070386145526666</v>
+        <v>11.897709671496</v>
       </c>
       <c r="R18">
-        <v>4.242231687315999</v>
+        <v>107.079387043464</v>
       </c>
       <c r="S18">
-        <v>0.0004943601396472492</v>
+        <v>0.007007479879855456</v>
       </c>
       <c r="T18">
-        <v>0.0004062421674762657</v>
+        <v>0.00824817162506767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H19">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I19">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J19">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>0.658186429096</v>
+        <v>46.12901695810935</v>
       </c>
       <c r="R19">
-        <v>3.949118574576</v>
+        <v>415.1611526229841</v>
       </c>
       <c r="S19">
-        <v>0.0004602027786101709</v>
+        <v>0.02716893983267097</v>
       </c>
       <c r="T19">
-        <v>0.0003781732370142076</v>
+        <v>0.03197926821812436</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H20">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I20">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J20">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>0.2649139692146668</v>
+        <v>0.564439368528</v>
       </c>
       <c r="R20">
-        <v>1.589483815288</v>
+        <v>2.257757474112</v>
       </c>
       <c r="S20">
-        <v>0.0001852273753086712</v>
+        <v>0.0003324419260149038</v>
       </c>
       <c r="T20">
-        <v>0.0001522112411308626</v>
+        <v>0.0001739118204579948</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H21">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I21">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J21">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>0.7349101187453335</v>
+        <v>2.838075804438001</v>
       </c>
       <c r="R21">
-        <v>6.614191068708</v>
+        <v>17.028454826628</v>
       </c>
       <c r="S21">
-        <v>0.0005138478457233638</v>
+        <v>0.001671561976734907</v>
       </c>
       <c r="T21">
-        <v>0.0006333843867811239</v>
+        <v>0.001311677455369902</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H22">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I22">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J22">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>0.09987713090066667</v>
+        <v>0.77334201826</v>
       </c>
       <c r="R22">
-        <v>0.898894178106</v>
+        <v>4.64005210956</v>
       </c>
       <c r="S22">
-        <v>6.983391198634773E-05</v>
+        <v>0.0004554808263801213</v>
       </c>
       <c r="T22">
-        <v>8.607939079268323E-05</v>
+        <v>0.0003574165598592138</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H23">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I23">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J23">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>0.9167593244180001</v>
+        <v>3.3206623339155</v>
       </c>
       <c r="R23">
-        <v>5.500555946508</v>
+        <v>13.282649335662</v>
       </c>
       <c r="S23">
-        <v>0.0006409964863502392</v>
+        <v>0.001955794445754101</v>
       </c>
       <c r="T23">
-        <v>0.0005267410963703508</v>
+        <v>0.001023143430132462</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H24">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I24">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J24">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>0.06325599515488889</v>
+        <v>0.252130515021</v>
       </c>
       <c r="R24">
-        <v>0.569303956394</v>
+        <v>1.512783090126</v>
       </c>
       <c r="S24">
-        <v>4.422847911649276E-05</v>
+        <v>0.0001484991279741907</v>
       </c>
       <c r="T24">
-        <v>5.451736025870775E-05</v>
+        <v>0.0001165275120018637</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H25">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I25">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J25">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>0.05888538010933334</v>
+        <v>0.9775438403010002</v>
       </c>
       <c r="R25">
-        <v>0.529968420984</v>
+        <v>5.865263041806001</v>
       </c>
       <c r="S25">
-        <v>4.117255286325378E-05</v>
+        <v>0.0005757510463545014</v>
       </c>
       <c r="T25">
-        <v>5.075053318710386E-05</v>
+        <v>0.0004517928009369873</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H26">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I26">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J26">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>88.50376105058135</v>
+        <v>25.56606268744</v>
       </c>
       <c r="R26">
-        <v>531.0225663034881</v>
+        <v>153.39637612464</v>
       </c>
       <c r="S26">
-        <v>0.06188167204977044</v>
+        <v>0.01505782834141326</v>
       </c>
       <c r="T26">
-        <v>0.05085147964901075</v>
+        <v>0.01181590287237913</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H27">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I27">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J27">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>245.5223850063787</v>
+        <v>128.5495448646567</v>
       </c>
       <c r="R27">
-        <v>2209.701465057408</v>
+        <v>1156.94590378191</v>
       </c>
       <c r="S27">
-        <v>0.171668814177953</v>
+        <v>0.0757127526284974</v>
       </c>
       <c r="T27">
-        <v>0.2116041694102632</v>
+        <v>0.08911788383172943</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H28">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I28">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J28">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>33.36744284891734</v>
+        <v>35.02822733507777</v>
       </c>
       <c r="R28">
-        <v>300.306985640256</v>
+        <v>315.2540460157</v>
       </c>
       <c r="S28">
-        <v>0.0233304565930941</v>
+        <v>0.02063082770170645</v>
       </c>
       <c r="T28">
-        <v>0.02875782600925021</v>
+        <v>0.02428356706953331</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H29">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I29">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J29">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>306.2754615383681</v>
+        <v>150.4081148947942</v>
       </c>
       <c r="R29">
-        <v>1837.652769230208</v>
+        <v>902.4486893687649</v>
       </c>
       <c r="S29">
-        <v>0.2141472570524716</v>
+        <v>0.08858695227849947</v>
       </c>
       <c r="T29">
-        <v>0.1759762547323676</v>
+        <v>0.06951432837124462</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H30">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I30">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J30">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>21.13287380352711</v>
+        <v>11.420154071205</v>
       </c>
       <c r="R30">
-        <v>190.195864231744</v>
+        <v>102.781386640845</v>
       </c>
       <c r="S30">
-        <v>0.01477606771345747</v>
+        <v>0.006726210513485827</v>
       </c>
       <c r="T30">
-        <v>0.01821342770163742</v>
+        <v>0.007917102817669453</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.69678833333333</v>
+      </c>
+      <c r="H31">
+        <v>44.090365</v>
+      </c>
+      <c r="I31">
+        <v>0.2327929922191316</v>
+      </c>
+      <c r="J31">
+        <v>0.23334445498805</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.012731</v>
+      </c>
+      <c r="N31">
+        <v>9.038193000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.1120240798785778</v>
+      </c>
+      <c r="P31">
+        <v>0.1315466014697712</v>
+      </c>
+      <c r="Q31">
+        <v>44.27746981227167</v>
+      </c>
+      <c r="R31">
+        <v>398.4972283104451</v>
+      </c>
+      <c r="S31">
+        <v>0.02607842075552914</v>
+      </c>
+      <c r="T31">
+        <v>0.03069567002549397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H32">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J32">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.739568</v>
+      </c>
+      <c r="N32">
+        <v>3.479136</v>
+      </c>
+      <c r="O32">
+        <v>0.06468334032683895</v>
+      </c>
+      <c r="P32">
+        <v>0.05063717015681495</v>
+      </c>
+      <c r="Q32">
+        <v>48.875765933584</v>
+      </c>
+      <c r="R32">
+        <v>293.254595601504</v>
+      </c>
+      <c r="S32">
+        <v>0.02878671238823813</v>
+      </c>
+      <c r="T32">
+        <v>0.02258898095278797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H33">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J33">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N33">
+        <v>26.240334</v>
+      </c>
+      <c r="O33">
+        <v>0.3252363909529882</v>
+      </c>
+      <c r="P33">
+        <v>0.3819155841363076</v>
+      </c>
+      <c r="Q33">
+        <v>245.7538160054807</v>
+      </c>
+      <c r="R33">
+        <v>2211.784344049326</v>
+      </c>
+      <c r="S33">
+        <v>0.1447433975617905</v>
+      </c>
+      <c r="T33">
+        <v>0.1703705761777621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H34">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J34">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.383393333333333</v>
+      </c>
+      <c r="N34">
+        <v>7.15018</v>
+      </c>
+      <c r="O34">
+        <v>0.08862306165250171</v>
+      </c>
+      <c r="P34">
+        <v>0.1040674700017059</v>
+      </c>
+      <c r="Q34">
+        <v>66.9650020508911</v>
+      </c>
+      <c r="R34">
+        <v>602.68501845802</v>
+      </c>
+      <c r="S34">
+        <v>0.03944086025651819</v>
+      </c>
+      <c r="T34">
+        <v>0.04642396268182832</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H35">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J35">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>10.2340805</v>
+      </c>
+      <c r="N35">
+        <v>20.468161</v>
+      </c>
+      <c r="O35">
+        <v>0.3805396005869078</v>
+      </c>
+      <c r="P35">
+        <v>0.2979043507796429</v>
+      </c>
+      <c r="Q35">
+        <v>287.5418052432881</v>
+      </c>
+      <c r="R35">
+        <v>1725.250831459729</v>
+      </c>
+      <c r="S35">
+        <v>0.1693555709874959</v>
+      </c>
+      <c r="T35">
+        <v>0.1328935974240724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>28.07003733333334</v>
-      </c>
-      <c r="H31">
-        <v>84.21011200000001</v>
-      </c>
-      <c r="I31">
-        <v>0.499559396435762</v>
-      </c>
-      <c r="J31">
-        <v>0.5023581450998098</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.700844</v>
-      </c>
-      <c r="N31">
-        <v>2.102532</v>
-      </c>
-      <c r="O31">
-        <v>0.02753452131449232</v>
-      </c>
-      <c r="P31">
-        <v>0.03375079664312381</v>
-      </c>
-      <c r="Q31">
-        <v>19.67271724484267</v>
-      </c>
-      <c r="R31">
-        <v>177.054455203584</v>
-      </c>
-      <c r="S31">
-        <v>0.01375512884901541</v>
-      </c>
-      <c r="T31">
-        <v>0.01695498759728057</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H36">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J36">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.777051</v>
+      </c>
+      <c r="N36">
+        <v>2.331153</v>
+      </c>
+      <c r="O36">
+        <v>0.02889352660218545</v>
+      </c>
+      <c r="P36">
+        <v>0.0339288234557573</v>
+      </c>
+      <c r="Q36">
+        <v>21.832410572313</v>
+      </c>
+      <c r="R36">
+        <v>196.491695150817</v>
+      </c>
+      <c r="S36">
+        <v>0.01285879232544679</v>
+      </c>
+      <c r="T36">
+        <v>0.01513547349544097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H37">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J37">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.012731</v>
+      </c>
+      <c r="N37">
+        <v>9.038193000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.1120240798785778</v>
+      </c>
+      <c r="P37">
+        <v>0.1315466014697712</v>
+      </c>
+      <c r="Q37">
+        <v>84.64718549481967</v>
+      </c>
+      <c r="R37">
+        <v>761.8246694533771</v>
+      </c>
+      <c r="S37">
+        <v>0.04985526337580886</v>
+      </c>
+      <c r="T37">
+        <v>0.05868226178126454</v>
       </c>
     </row>
   </sheetData>
